--- a/Documentation/wiring.xlsx
+++ b/Documentation/wiring.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\repos\wilderness\Customer_ThurstonPUD\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\repos\wilderness\Customer_ThurstonPUD\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -231,12 +231,6 @@
     <t>Amazon</t>
   </si>
   <si>
-    <t xml:space="preserve">https://a.co/d/4AIpzhK </t>
-  </si>
-  <si>
-    <t>11.4x7.5x5.5"</t>
-  </si>
-  <si>
     <t>DIN rail</t>
   </si>
   <si>
@@ -427,6 +421,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://amzn.to/44ioFpw </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/40jyGSg </t>
+  </si>
+  <si>
+    <t>20"×16.1"×7.9"</t>
   </si>
 </sst>
 </file>
@@ -547,12 +547,6 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -581,6 +575,12 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1371,7 +1371,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1388,500 +1388,500 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="D9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
         <v>2</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="B12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" t="s">
         <v>78</v>
       </c>
-      <c r="F9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
         <v>1</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="B19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>10</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
         <v>1</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
-        <v>2</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
-        <v>1</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
-        <v>1</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <v>1</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="9">
-        <v>1</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
-        <v>1</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
-        <v>2</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>1</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="B22" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="C19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
-        <v>10</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
-        <v>16</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
-        <v>1</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>89</v>
+      <c r="B23" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>84</v>
+        <v>114</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>9</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>10</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
-        <v>10</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="C26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <v>4</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <v>2</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C25" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
-        <v>1</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="C26" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
-        <v>4</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="12">
-        <v>2</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="D31" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>131</v>
+      <c r="E31" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="F31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="6" t="s">
-        <v>94</v>
+      <c r="B32" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="D32" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>129</v>
+      <c r="E32" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="F32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" t="s">
         <v>126</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F33" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="12">
+      <c r="A34" s="10">
         <v>13</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>97</v>
+      <c r="B34" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
         <v>67</v>
       </c>
-      <c r="E34" s="13" t="s">
-        <v>133</v>
+      <c r="E34" s="11" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/wiring.xlsx
+++ b/Documentation/wiring.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="37608" windowHeight="13584" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="37608" windowHeight="13572" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Wires" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="178">
   <si>
     <t>Wire Number</t>
   </si>
@@ -234,9 +234,6 @@
     <t>DIN rail</t>
   </si>
   <si>
-    <t>10"</t>
-  </si>
-  <si>
     <t>8"</t>
   </si>
   <si>
@@ -276,9 +273,6 @@
     <t>Automation Direct</t>
   </si>
   <si>
-    <t>wire tray</t>
-  </si>
-  <si>
     <t>Green terminal block</t>
   </si>
   <si>
@@ -321,9 +315,6 @@
     <t>1" wide, 1.5" high, 12" long</t>
   </si>
   <si>
-    <t>1" wide, 1.5" high, 8" long</t>
-  </si>
-  <si>
     <t>T1E-1015G-1</t>
   </si>
   <si>
@@ -427,6 +418,147 @@
   </si>
   <si>
     <t>20"×16.1"×7.9"</t>
+  </si>
+  <si>
+    <t>T3-1L</t>
+  </si>
+  <si>
+    <t>T3-2L</t>
+  </si>
+  <si>
+    <t>T3-3L</t>
+  </si>
+  <si>
+    <t>T3-4L</t>
+  </si>
+  <si>
+    <t>T3-5L</t>
+  </si>
+  <si>
+    <t>T3-6L</t>
+  </si>
+  <si>
+    <t>T3-1U</t>
+  </si>
+  <si>
+    <t>T3-2U</t>
+  </si>
+  <si>
+    <t>T3-3U</t>
+  </si>
+  <si>
+    <t>T3-4U</t>
+  </si>
+  <si>
+    <t>T3-5U</t>
+  </si>
+  <si>
+    <t>T3-6U</t>
+  </si>
+  <si>
+    <t>T3-7L</t>
+  </si>
+  <si>
+    <t>4-20mA</t>
+  </si>
+  <si>
+    <t>dry contact</t>
+  </si>
+  <si>
+    <t>T3-8L</t>
+  </si>
+  <si>
+    <t>T3-10L</t>
+  </si>
+  <si>
+    <t>T3-9L</t>
+  </si>
+  <si>
+    <t>1" wide, 1.5" high, 10" long</t>
+  </si>
+  <si>
+    <t>T3-7U</t>
+  </si>
+  <si>
+    <t>232U</t>
+  </si>
+  <si>
+    <t>T3-8U</t>
+  </si>
+  <si>
+    <t>233U</t>
+  </si>
+  <si>
+    <t>T3-9U</t>
+  </si>
+  <si>
+    <t>234U</t>
+  </si>
+  <si>
+    <t>T3-10U</t>
+  </si>
+  <si>
+    <t>235U</t>
+  </si>
+  <si>
+    <t>235L</t>
+  </si>
+  <si>
+    <t>234L</t>
+  </si>
+  <si>
+    <t>233L</t>
+  </si>
+  <si>
+    <t>232L</t>
+  </si>
+  <si>
+    <t>231U</t>
+  </si>
+  <si>
+    <t>230U</t>
+  </si>
+  <si>
+    <t>229U</t>
+  </si>
+  <si>
+    <t>228U</t>
+  </si>
+  <si>
+    <t>227U</t>
+  </si>
+  <si>
+    <t>226U</t>
+  </si>
+  <si>
+    <t>wire duct</t>
+  </si>
+  <si>
+    <t>CT-VOLTS-POS</t>
+  </si>
+  <si>
+    <t>CT-VOLTS-NEG</t>
+  </si>
+  <si>
+    <t>120L</t>
+  </si>
+  <si>
+    <t>120N</t>
+  </si>
+  <si>
+    <t>CT-RS485-NEG</t>
+  </si>
+  <si>
+    <t>CT-RS405-POS</t>
+  </si>
+  <si>
+    <t>CT-PWR-GND</t>
+  </si>
+  <si>
+    <t>CT-PWR-POS</t>
+  </si>
+  <si>
+    <t>10.5"</t>
   </si>
 </sst>
 </file>
@@ -862,15 +994,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -938,7 +1072,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -957,6 +1091,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>104</v>
+      </c>
       <c r="B5" s="1">
         <v>213</v>
       </c>
@@ -977,7 +1114,12 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
+      <c r="A6">
+        <v>105</v>
+      </c>
+      <c r="B6" s="1">
+        <v>107</v>
+      </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
@@ -995,6 +1137,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>106</v>
+      </c>
       <c r="B7" s="1">
         <v>108</v>
       </c>
@@ -1015,6 +1160,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>107</v>
+      </c>
       <c r="B8">
         <v>210</v>
       </c>
@@ -1035,6 +1183,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>108</v>
+      </c>
       <c r="B9">
         <v>211</v>
       </c>
@@ -1055,6 +1206,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>109</v>
+      </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -1072,6 +1226,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>110</v>
+      </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -1089,6 +1246,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>111</v>
+      </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
@@ -1112,6 +1272,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>112</v>
+      </c>
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -1135,6 +1298,9 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>113</v>
+      </c>
       <c r="B14" t="s">
         <v>28</v>
       </c>
@@ -1158,6 +1324,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>114</v>
+      </c>
       <c r="B15" t="s">
         <v>32</v>
       </c>
@@ -1181,6 +1350,9 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>115</v>
+      </c>
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -1199,8 +1371,14 @@
       <c r="G16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>116</v>
+      </c>
       <c r="B17">
         <v>105</v>
       </c>
@@ -1210,11 +1388,20 @@
       <c r="D17">
         <v>8.5</v>
       </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
       <c r="G17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>117</v>
+      </c>
       <c r="B18" t="s">
         <v>40</v>
       </c>
@@ -1224,11 +1411,20 @@
       <c r="D18">
         <v>5</v>
       </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
       <c r="G18" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>118</v>
+      </c>
       <c r="B19" t="s">
         <v>42</v>
       </c>
@@ -1238,11 +1434,20 @@
       <c r="D19">
         <v>5</v>
       </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
       <c r="G19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>119</v>
+      </c>
       <c r="B20" t="s">
         <v>44</v>
       </c>
@@ -1252,11 +1457,20 @@
       <c r="D20">
         <v>5</v>
       </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
       <c r="G20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>120</v>
+      </c>
       <c r="B21">
         <v>236</v>
       </c>
@@ -1266,11 +1480,23 @@
       <c r="D21">
         <v>5</v>
       </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
       <c r="G21" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>121</v>
+      </c>
       <c r="B22" t="s">
         <v>46</v>
       </c>
@@ -1280,11 +1506,23 @@
       <c r="D22">
         <v>3.5</v>
       </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
       <c r="G22" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>122</v>
+      </c>
       <c r="B23" t="s">
         <v>47</v>
       </c>
@@ -1294,11 +1532,23 @@
       <c r="D23">
         <v>3.5</v>
       </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
       <c r="G23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>123</v>
+      </c>
       <c r="B24" t="s">
         <v>48</v>
       </c>
@@ -1308,11 +1558,23 @@
       <c r="D24">
         <v>3.5</v>
       </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
       <c r="G24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>124</v>
+      </c>
       <c r="B25" t="s">
         <v>49</v>
       </c>
@@ -1322,11 +1584,23 @@
       <c r="D25">
         <v>3.5</v>
       </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
       <c r="G25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>125</v>
+      </c>
       <c r="B26" t="s">
         <v>50</v>
       </c>
@@ -1336,28 +1610,908 @@
       <c r="D26">
         <v>3.5</v>
       </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
       <c r="G26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="H26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>126</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27">
+        <v>225</v>
+      </c>
+      <c r="D27">
+        <v>6.5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>127</v>
+      </c>
+      <c r="B28">
+        <v>225</v>
+      </c>
+      <c r="C28">
+        <v>222</v>
+      </c>
+      <c r="D28">
+        <v>5.5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>128</v>
+      </c>
+      <c r="B29">
+        <v>222</v>
+      </c>
+      <c r="C29">
+        <v>219</v>
+      </c>
+      <c r="D29">
+        <v>5.5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>129</v>
+      </c>
+      <c r="B30">
+        <v>219</v>
+      </c>
+      <c r="C30">
+        <v>216</v>
+      </c>
+      <c r="D30">
+        <v>5.5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>130</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31">
+        <v>224</v>
+      </c>
+      <c r="D31">
+        <v>6.5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>131</v>
+      </c>
+      <c r="B32">
+        <v>224</v>
+      </c>
+      <c r="C32">
+        <v>221</v>
+      </c>
+      <c r="D32">
+        <v>5.5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>132</v>
+      </c>
+      <c r="B33">
+        <v>221</v>
+      </c>
+      <c r="C33">
+        <v>218</v>
+      </c>
+      <c r="D33">
+        <v>5.5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>133</v>
+      </c>
+      <c r="B34">
+        <v>218</v>
+      </c>
+      <c r="C34">
+        <v>215</v>
+      </c>
+      <c r="D34">
+        <v>5.5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>134</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35">
+        <v>223</v>
+      </c>
+      <c r="D35">
+        <v>6.5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>135</v>
+      </c>
+      <c r="B36">
+        <v>223</v>
+      </c>
+      <c r="C36">
+        <v>220</v>
+      </c>
+      <c r="D36">
+        <v>5.5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>136</v>
+      </c>
+      <c r="B37">
+        <v>220</v>
+      </c>
+      <c r="C37">
+        <v>217</v>
+      </c>
+      <c r="D37">
+        <v>5.5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>137</v>
+      </c>
+      <c r="B38">
+        <v>217</v>
+      </c>
+      <c r="C38">
+        <v>214</v>
+      </c>
+      <c r="D38">
+        <v>5.5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>138</v>
+      </c>
+      <c r="B39">
+        <v>212</v>
+      </c>
+      <c r="C39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39">
+        <v>8.5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>139</v>
+      </c>
+      <c r="B40" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>140</v>
+      </c>
+      <c r="B41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>141</v>
+      </c>
+      <c r="B42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>142</v>
+      </c>
+      <c r="B43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>143</v>
+      </c>
+      <c r="B44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>144</v>
+      </c>
+      <c r="B45" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45">
+        <v>5.5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>145</v>
+      </c>
+      <c r="B46" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46">
+        <v>5.5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>146</v>
+      </c>
+      <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47">
+        <v>5.5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>147</v>
+      </c>
+      <c r="B48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48">
+        <v>5.5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>148</v>
+      </c>
+      <c r="B49" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" t="s">
+        <v>163</v>
+      </c>
+      <c r="D49">
+        <v>5.5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>149</v>
+      </c>
+      <c r="B50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50">
+        <v>5.5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>150</v>
+      </c>
+      <c r="B51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51">
+        <v>3.5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>151</v>
+      </c>
+      <c r="B52" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52">
+        <v>3.5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>152</v>
+      </c>
+      <c r="B53" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53">
+        <v>3.5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>153</v>
+      </c>
+      <c r="B54" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54">
+        <v>3.5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>154</v>
+      </c>
+      <c r="B55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55">
+        <v>5.5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>155</v>
+      </c>
+      <c r="B56" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56">
+        <v>5.5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>156</v>
+      </c>
+      <c r="B57" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57">
+        <v>5.5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>157</v>
+      </c>
+      <c r="B58" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58">
+        <v>5.5</v>
+      </c>
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>106</v>
+      </c>
+      <c r="C59" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59">
+        <v>14</v>
+      </c>
+      <c r="G59" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>109</v>
+      </c>
+      <c r="C60" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>216</v>
+      </c>
+      <c r="C61" t="s">
+        <v>173</v>
+      </c>
+      <c r="D61">
+        <v>17</v>
+      </c>
+      <c r="G61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>215</v>
+      </c>
+      <c r="C62" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62">
+        <v>17</v>
+      </c>
+      <c r="G62" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>214</v>
+      </c>
+      <c r="C63" t="s">
+        <v>175</v>
+      </c>
+      <c r="D63">
+        <v>17</v>
+      </c>
+      <c r="G63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>238</v>
+      </c>
+      <c r="C64" t="s">
+        <v>176</v>
+      </c>
+      <c r="D64">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
         <v>3</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B67" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>2</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B68" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1371,7 +2525,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1487,10 +2641,10 @@
         <v>67</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1501,10 +2655,10 @@
         <v>68</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1515,10 +2669,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1526,19 +2680,19 @@
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1546,19 +2700,19 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1566,16 +2720,16 @@
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1583,16 +2737,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1600,16 +2754,16 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="E15" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1617,13 +2771,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>67</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1631,13 +2785,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1645,13 +2799,13 @@
         <v>2</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1659,16 +2813,16 @@
         <v>1</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" t="s">
         <v>80</v>
-      </c>
-      <c r="C19" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1676,27 +2830,27 @@
         <v>10</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1704,13 +2858,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1718,13 +2872,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1732,13 +2886,13 @@
         <v>9</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1746,13 +2900,13 @@
         <v>10</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1760,111 +2914,111 @@
         <v>1</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
         <v>67</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
         <v>67</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F32" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>67</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F33" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1872,16 +3026,16 @@
         <v>13</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
         <v>67</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/wiring.xlsx
+++ b/Documentation/wiring.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="37608" windowHeight="13572" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="37608" windowHeight="13572"/>
   </bookViews>
   <sheets>
     <sheet name="Wires" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="179">
   <si>
     <t>Wire Number</t>
   </si>
@@ -559,6 +559,9 @@
   </si>
   <si>
     <t>10.5"</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -996,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1063,6 +1066,9 @@
       <c r="D3">
         <v>12</v>
       </c>
+      <c r="E3" t="s">
+        <v>178</v>
+      </c>
       <c r="G3" t="s">
         <v>9</v>
       </c>
@@ -1083,6 +1089,9 @@
       <c r="D4">
         <v>12</v>
       </c>
+      <c r="E4" t="s">
+        <v>178</v>
+      </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
@@ -1218,6 +1227,9 @@
       <c r="D10">
         <v>17</v>
       </c>
+      <c r="E10" t="s">
+        <v>178</v>
+      </c>
       <c r="G10" t="s">
         <v>25</v>
       </c>
@@ -1238,6 +1250,9 @@
       <c r="D11">
         <v>17</v>
       </c>
+      <c r="E11" t="s">
+        <v>178</v>
+      </c>
       <c r="G11" t="s">
         <v>18</v>
       </c>
@@ -2183,7 +2198,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>148</v>
       </c>
@@ -2206,7 +2221,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>149</v>
       </c>
@@ -2229,7 +2244,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>150</v>
       </c>
@@ -2252,7 +2267,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>151</v>
       </c>
@@ -2275,7 +2290,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>152</v>
       </c>
@@ -2298,7 +2313,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>153</v>
       </c>
@@ -2321,7 +2336,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>154</v>
       </c>
@@ -2344,7 +2359,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>155</v>
       </c>
@@ -2367,7 +2382,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>156</v>
       </c>
@@ -2390,7 +2405,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>157</v>
       </c>
@@ -2413,7 +2428,10 @@
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>158</v>
+      </c>
       <c r="B59">
         <v>106</v>
       </c>
@@ -2423,11 +2441,20 @@
       <c r="D59">
         <v>14</v>
       </c>
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" t="s">
+        <v>31</v>
+      </c>
       <c r="G59" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>159</v>
+      </c>
       <c r="B60">
         <v>109</v>
       </c>
@@ -2437,11 +2464,20 @@
       <c r="D60">
         <v>14</v>
       </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" t="s">
+        <v>31</v>
+      </c>
       <c r="G60" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>160</v>
+      </c>
       <c r="B61">
         <v>216</v>
       </c>
@@ -2451,11 +2487,23 @@
       <c r="D61">
         <v>17</v>
       </c>
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" t="s">
+        <v>31</v>
+      </c>
       <c r="G61" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>161</v>
+      </c>
       <c r="B62">
         <v>215</v>
       </c>
@@ -2465,11 +2513,23 @@
       <c r="D62">
         <v>17</v>
       </c>
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" t="s">
+        <v>31</v>
+      </c>
       <c r="G62" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>162</v>
+      </c>
       <c r="B63">
         <v>214</v>
       </c>
@@ -2479,11 +2539,23 @@
       <c r="D63">
         <v>17</v>
       </c>
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" t="s">
+        <v>31</v>
+      </c>
       <c r="G63" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>163</v>
+      </c>
       <c r="B64">
         <v>238</v>
       </c>
@@ -2492,6 +2564,15 @@
       </c>
       <c r="D64">
         <v>25</v>
+      </c>
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -2509,7 +2590,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B68" t="s">
         <v>21</v>
@@ -2524,7 +2605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/wiring.xlsx
+++ b/Documentation/wiring.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="37608" windowHeight="13572"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="37608" windowHeight="13572" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Wires" sheetId="1" r:id="rId1"/>
     <sheet name="BOM" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="207">
   <si>
     <t>Wire Number</t>
   </si>
@@ -562,13 +563,97 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>Terminating resistor</t>
+  </si>
+  <si>
+    <t>120-ohm, through-hole</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>120-ohm resistor</t>
+  </si>
+  <si>
+    <t>FIELD WIRING</t>
+  </si>
+  <si>
+    <t>120-GND</t>
+  </si>
+  <si>
+    <t>CB-2</t>
+  </si>
+  <si>
+    <t>RS485 GND</t>
+  </si>
+  <si>
+    <t>RS485 A</t>
+  </si>
+  <si>
+    <t>RS485 B</t>
+  </si>
+  <si>
+    <t>126U</t>
+  </si>
+  <si>
+    <t>4-20mA (-)</t>
+  </si>
+  <si>
+    <t>4-20mA (+) [24VDC]</t>
+  </si>
+  <si>
+    <t>127U</t>
+  </si>
+  <si>
+    <t>128U</t>
+  </si>
+  <si>
+    <t>129U</t>
+  </si>
+  <si>
+    <t>130U</t>
+  </si>
+  <si>
+    <t>131U</t>
+  </si>
+  <si>
+    <t>132U</t>
+  </si>
+  <si>
+    <t>Dry Contact A</t>
+  </si>
+  <si>
+    <t>132L</t>
+  </si>
+  <si>
+    <t>Dry Contact B</t>
+  </si>
+  <si>
+    <t>133U</t>
+  </si>
+  <si>
+    <t>133L</t>
+  </si>
+  <si>
+    <t>134U</t>
+  </si>
+  <si>
+    <t>134L</t>
+  </si>
+  <si>
+    <t>135U</t>
+  </si>
+  <si>
+    <t>135L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,6 +681,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -605,7 +698,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -674,12 +767,124 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -716,6 +921,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -997,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1008,6 +1229,7 @@
     <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -2575,24 +2797,38 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>181</v>
+      </c>
+      <c r="B65" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>3</v>
-      </c>
-      <c r="B67" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3</v>
       </c>
       <c r="B68" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2603,10 +2839,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3117,6 +3353,17 @@
       </c>
       <c r="E34" s="11" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3142,4 +3389,340 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="150" verticalDpi="150" r:id="rId15"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="15"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="18">
+        <v>112</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
+        <v>113</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="18">
+        <v>114</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
+        <v>115</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
+        <v>116</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
+        <v>117</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
+        <v>118</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
+        <v>119</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
+        <v>120</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
+        <v>121</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
+        <v>122</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="18">
+        <v>123</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
+        <v>124</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <v>125</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="18">
+        <v>136</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="18">
+        <v>137</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="20">
+        <v>138</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="150" verticalDpi="150" r:id="rId1"/>
+</worksheet>
 </file>